--- a/code/reviewed/bugList.xlsx
+++ b/code/reviewed/bugList.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\code\reviewed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3BBCCC-D109-4689-8C6F-5250E13B6841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8B7B85-A6AF-47C1-B19C-4C81379187C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19695" yWindow="240" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27795" yWindow="4890" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="39">
-  <si>
-    <t>Reported, Solved, User caused bug</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="43">
   <si>
     <t>storm</t>
   </si>
@@ -114,9 +112,6 @@
     <t>circuit of 1 int</t>
   </si>
   <si>
-    <t>minizinc:experimental, minizinc:gecode, minizinc:gist</t>
-  </si>
-  <si>
     <t>order of operation</t>
   </si>
   <si>
@@ -142,6 +137,24 @@
   </si>
   <si>
     <t>all pysat</t>
+  </si>
+  <si>
+    <t>NOT RUN</t>
+  </si>
+  <si>
+    <t>unexpected output</t>
+  </si>
+  <si>
+    <t>minizinc:experimental, minizinc:osicbc</t>
+  </si>
+  <si>
+    <t>Reported, Solved, User caused bug, timeout</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>timeouts</t>
   </si>
 </sst>
 </file>
@@ -466,19 +479,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:N18"/>
+  <dimension ref="A2:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
@@ -487,273 +502,341 @@
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" t="s">
-        <v>11</v>
-      </c>
       <c r="N2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
         <v>13</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
         <v>4</v>
       </c>
-      <c r="I6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="1" t="s">
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="N9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
+      <c r="I10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="E10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+      <c r="D11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
         <v>23</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N11" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
         <v>26</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" t="s">
         <v>4</v>
-      </c>
-      <c r="I14" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
         <v>31</v>
       </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" t="s">
         <v>4</v>
-      </c>
-      <c r="I17" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" t="s">
         <v>4</v>
       </c>
-      <c r="I18" t="s">
-        <v>5</v>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/code/reviewed/bugList.xlsx
+++ b/code/reviewed/bugList.xlsx
@@ -8,25 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\code\reviewed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8B7B85-A6AF-47C1-B19C-4C81379187C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F266FFB-F958-45E3-A58E-2DF701AF89F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27795" yWindow="4890" windowWidth="18900" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29655" yWindow="3375" windowWidth="15975" windowHeight="9870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="47">
   <si>
     <t>storm</t>
   </si>
@@ -155,6 +165,18 @@
   </si>
   <si>
     <t>timeouts</t>
+  </si>
+  <si>
+    <t>new gurobi status</t>
+  </si>
+  <si>
+    <t>unsat_mip</t>
+  </si>
+  <si>
+    <t>minizinc:float, minizinc:coinbc, minizinc:mip, minizinc:osicbc</t>
+  </si>
+  <si>
+    <t>unsat gurobi</t>
   </si>
 </sst>
 </file>
@@ -479,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:N19"/>
+  <dimension ref="A2:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,7 +813,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>11</v>
       </c>
@@ -811,7 +833,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -831,12 +853,60 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>41</v>
       </c>
       <c r="C19" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/code/reviewed/bugList.xlsx
+++ b/code/reviewed/bugList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\code\reviewed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F266FFB-F958-45E3-A58E-2DF701AF89F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C168FBE-4D74-4E16-B26E-5230C1AC4FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29655" yWindow="3375" windowWidth="15975" windowHeight="9870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="53">
   <si>
     <t>storm</t>
   </si>
@@ -110,15 +110,6 @@
     <t>minizinc:gecode, minizinc:gist, minizinc:restart, minizinc:xpress, minizinc:set</t>
   </si>
   <si>
-    <t>WronglyUnsat</t>
-  </si>
-  <si>
-    <t>todo</t>
-  </si>
-  <si>
-    <t>wrongly unsat</t>
-  </si>
-  <si>
     <t>circuit of 1 int</t>
   </si>
   <si>
@@ -143,9 +134,6 @@
     <t>crash</t>
   </si>
   <si>
-    <t>not global function</t>
-  </si>
-  <si>
     <t>all pysat</t>
   </si>
   <si>
@@ -177,6 +165,36 @@
   </si>
   <si>
     <t>unsat gurobi</t>
+  </si>
+  <si>
+    <t>all minizinc</t>
+  </si>
+  <si>
+    <t>negationGlobalFunctionWhileHandlingPythonObject</t>
+  </si>
+  <si>
+    <t>negationGlobalFunction</t>
+  </si>
+  <si>
+    <t>memory violation seg fault minizinc</t>
+  </si>
+  <si>
+    <t>minizinc:set, int, cp, lcg</t>
+  </si>
+  <si>
+    <t>minizinc:int, cp, lcg</t>
+  </si>
+  <si>
+    <t>malloc() failure</t>
+  </si>
+  <si>
+    <t>exception instead of status error ortools</t>
+  </si>
+  <si>
+    <t>unsat minizinc</t>
+  </si>
+  <si>
+    <t>all minizincs</t>
   </si>
 </sst>
 </file>
@@ -218,9 +236,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:N22"/>
+  <dimension ref="A2:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,13 +543,13 @@
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>0</v>
@@ -564,6 +583,9 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>149</v>
+      </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -571,7 +593,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>1</v>
@@ -581,6 +603,9 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>150</v>
+      </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -588,16 +613,19 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>145</v>
+      </c>
       <c r="B5" t="s">
         <v>11</v>
       </c>
@@ -605,7 +633,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>1</v>
@@ -615,68 +643,89 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>152</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="H6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I6" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>153</v>
+      </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" t="s">
-        <v>13</v>
+      <c r="I7" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>154</v>
+      </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I8" t="s">
-        <v>4</v>
+      <c r="G8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>155</v>
+      </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>1</v>
@@ -684,34 +733,34 @@
       <c r="G9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N9" t="s">
-        <v>39</v>
+      <c r="I9" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>8</v>
+      <c r="A10">
+        <v>155</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>2</v>
+      <c r="H10" t="s">
+        <v>3</v>
       </c>
       <c r="I10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>156</v>
+      </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
@@ -719,7 +768,10 @@
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>1</v>
@@ -729,184 +781,253 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>25</v>
+      <c r="A12">
+        <v>157</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
       </c>
       <c r="C12" t="s">
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>3</v>
       </c>
       <c r="I12" t="s">
         <v>4</v>
       </c>
+      <c r="L12" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>158</v>
+      </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>142</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
         <v>3</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>143</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>159</v>
+      </c>
+      <c r="B19" t="s">
         <v>8</v>
       </c>
-      <c r="C16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H18" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>160</v>
+      </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I20" t="s">
+      <c r="N20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I22" t="s">
-        <v>4</v>
+        <v>31</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/code/reviewed/bugList.xlsx
+++ b/code/reviewed/bugList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\code\reviewed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C168FBE-4D74-4E16-B26E-5230C1AC4FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F215C1-3E25-4788-BEC3-DB1D3C693BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31530" yWindow="195" windowWidth="18900" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="52">
   <si>
     <t>storm</t>
   </si>
@@ -149,15 +149,6 @@
     <t>Reported, Solved, User caused bug, timeout</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>timeouts</t>
-  </si>
-  <si>
-    <t>new gurobi status</t>
-  </si>
-  <si>
     <t>unsat_mip</t>
   </si>
   <si>
@@ -179,12 +170,6 @@
     <t>memory violation seg fault minizinc</t>
   </si>
   <si>
-    <t>minizinc:set, int, cp, lcg</t>
-  </si>
-  <si>
-    <t>minizinc:int, cp, lcg</t>
-  </si>
-  <si>
     <t>malloc() failure</t>
   </si>
   <si>
@@ -195,14 +180,34 @@
   </si>
   <si>
     <t>all minizincs</t>
+  </si>
+  <si>
+    <t>new gurobi status 9</t>
+  </si>
+  <si>
+    <t>minizinc: int, cp, lcg, chuffed</t>
+  </si>
+  <si>
+    <t>todo</t>
+  </si>
+  <si>
+    <t>https://github.com/rubenkindt/cpmpy/blob/master/cpmpy/solvers/ortools.py</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -236,10 +241,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:N25"/>
+  <dimension ref="A2:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,6 +601,9 @@
       <c r="D3" t="s">
         <v>31</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
@@ -642,7 +651,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>152</v>
       </c>
@@ -665,61 +674,58 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>153</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>4</v>
+    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>152</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f>_xlfn.CONCAT(B6,"U")</f>
+        <v>RU</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N8" t="s">
-        <v>35</v>
+      <c r="I8" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
         <v>31</v>
@@ -733,94 +739,111 @@
       <c r="G9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I9" t="s">
-        <v>4</v>
+      <c r="N9" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>155</v>
       </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
         <v>31</v>
       </c>
+      <c r="E10" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="F10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H10" t="s">
-        <v>3</v>
+      <c r="G10" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="I10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>156</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="1" t="s">
+    <row r="11" spans="1:14" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>155</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f>B10</f>
+        <v>R</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s">
-        <v>23</v>
+      <c r="F11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>157</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
         <v>3</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I13" t="s">
         <v>4</v>
       </c>
-      <c r="L12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" t="s">
-        <v>13</v>
+      <c r="L13" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -874,7 +897,7 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
         <v>31</v>
@@ -892,14 +915,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="1" t="s">
+    <row r="17" spans="1:14" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <f>A16</f>
+        <v>143</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f>B16</f>
+        <v>RS</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H17" s="2" t="s">
@@ -907,73 +940,91 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>159</v>
+      </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>159</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
       <c r="C19" t="s">
         <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="I19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>160</v>
-      </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N20" t="s">
-        <v>41</v>
+        <v>31</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L20" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I21" t="s">
-        <v>4</v>
+      <c r="L21" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
         <v>31</v>
@@ -981,53 +1032,45 @@
       <c r="G22" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L22" t="s">
-        <v>47</v>
+      <c r="H22" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L23" t="s">
-        <v>48</v>
+      <c r="N23" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>160</v>
+      </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" t="s">
         <v>29</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N25" t="s">
-        <v>52</v>
+      <c r="F24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/code/reviewed/bugList.xlsx
+++ b/code/reviewed/bugList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\code\reviewed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61F215C1-3E25-4788-BEC3-DB1D3C693BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18FAF10-B934-4C23-8F9F-1D8FCA86D60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31530" yWindow="195" windowWidth="18900" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="57">
   <si>
     <t>storm</t>
   </si>
@@ -192,6 +192,21 @@
   </si>
   <si>
     <t>https://github.com/rubenkindt/cpmpy/blob/master/cpmpy/solvers/ortools.py</t>
+  </si>
+  <si>
+    <t>two separate references</t>
+  </si>
+  <si>
+    <t>minizinc error</t>
+  </si>
+  <si>
+    <t>minizinc: int, gist, gecode, cp</t>
+  </si>
+  <si>
+    <t>minizinc error, + in name (data vs name)</t>
+  </si>
+  <si>
+    <t>loading file crashes</t>
   </si>
 </sst>
 </file>
@@ -526,11 +541,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:N24"/>
+  <dimension ref="A2:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -651,7 +664,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>152</v>
       </c>
@@ -769,7 +782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>155</v>
       </c>
@@ -891,112 +904,120 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>161</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="1" t="str">
+        <f>E15</f>
+        <v>storm</v>
+      </c>
+      <c r="G16" s="1">
+        <f>G15</f>
+        <v>0</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>143</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>11</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>42</v>
       </c>
-      <c r="D16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" t="s">
         <v>3</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <f>A16</f>
+    <row r="18" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <f>A17</f>
         <v>143</v>
       </c>
-      <c r="B17" s="2" t="str">
-        <f>B16</f>
+      <c r="B18" s="2" t="str">
+        <f>B17</f>
         <v>RS</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H17" s="2" t="s">
+      <c r="D18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>159</v>
       </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s">
         <v>48</v>
       </c>
-      <c r="D18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>39</v>
-      </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="I19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>50</v>
-      </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L20" t="s">
-        <v>49</v>
+      <c r="I20" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -1004,7 +1025,7 @@
         <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
         <v>31</v>
@@ -1017,60 +1038,134 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>51</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>26</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>45</v>
       </c>
-      <c r="D22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
         <v>46</v>
-      </c>
-      <c r="D23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N23" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>160</v>
-      </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
-        <v>37</v>
       </c>
       <c r="D24" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>1</v>
+      <c r="E24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="N24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>160</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>92</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>162</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H28" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/code/reviewed/bugList.xlsx
+++ b/code/reviewed/bugList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\code\reviewed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18FAF10-B934-4C23-8F9F-1D8FCA86D60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C25199-25BF-4295-8EB5-C3A4C202AA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="57">
   <si>
     <t>storm</t>
   </si>
@@ -158,18 +158,12 @@
     <t>unsat gurobi</t>
   </si>
   <si>
-    <t>all minizinc</t>
-  </si>
-  <si>
     <t>negationGlobalFunctionWhileHandlingPythonObject</t>
   </si>
   <si>
     <t>negationGlobalFunction</t>
   </si>
   <si>
-    <t>memory violation seg fault minizinc</t>
-  </si>
-  <si>
     <t>malloc() failure</t>
   </si>
   <si>
@@ -188,9 +182,6 @@
     <t>minizinc: int, cp, lcg, chuffed</t>
   </si>
   <si>
-    <t>todo</t>
-  </si>
-  <si>
     <t>https://github.com/rubenkindt/cpmpy/blob/master/cpmpy/solvers/ortools.py</t>
   </si>
   <si>
@@ -203,17 +194,26 @@
     <t>minizinc: int, gist, gecode, cp</t>
   </si>
   <si>
-    <t>minizinc error, + in name (data vs name)</t>
-  </si>
-  <si>
     <t>loading file crashes</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>memory violation seg fault minizinc (is the same bug as out of range)</t>
+  </si>
+  <si>
+    <t>randomVarWithSamename</t>
+  </si>
+  <si>
+    <t>unsat ortools</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -225,6 +225,12 @@
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -256,11 +262,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,9 +548,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:N28"/>
+  <dimension ref="A2:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -603,114 +612,126 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L3" t="s">
-        <v>7</v>
+      <c r="G3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>150</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" t="s">
-        <v>32</v>
-      </c>
+      <c r="A4" s="2">
+        <v>152</v>
+      </c>
+      <c r="B4" s="2" t="str">
+        <f>_xlfn.CONCAT(B19,"U")</f>
+        <v>RSU</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>1</v>
+      <c r="G5" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="H5" t="s">
         <v>13</v>
       </c>
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>152</v>
-      </c>
-      <c r="B7" s="2" t="str">
-        <f>_xlfn.CONCAT(B6,"U")</f>
-        <v>RU</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>153</v>
       </c>
@@ -723,12 +744,20 @@
       <c r="D8" t="s">
         <v>33</v>
       </c>
+      <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="G8" s="1"/>
+      <c r="H8"/>
       <c r="I8" t="s">
         <v>4</v>
       </c>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -782,12 +811,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>155</v>
       </c>
       <c r="B11" s="2" t="str">
-        <f>B10</f>
+        <f>B3</f>
         <v>R</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -809,122 +838,130 @@
       <c r="I11" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
         <v>31</v>
       </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" t="s">
-        <v>4</v>
-      </c>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
       <c r="L13" t="s">
-        <v>40</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="M13"/>
+      <c r="N13"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H14" t="s">
-        <v>13</v>
+      <c r="L14" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>142</v>
-      </c>
-      <c r="B15" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H15" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" t="s">
-        <v>4</v>
+      <c r="F15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="1" t="str">
-        <f>E15</f>
-        <v>storm</v>
-      </c>
-      <c r="G16" s="1">
-        <f>G15</f>
+        <v>31</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H16" t="s">
-        <v>13</v>
+      <c r="F16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -935,7 +972,7 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
         <v>31</v>
@@ -953,7 +990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f>A17</f>
         <v>143</v>
@@ -963,7 +1000,7 @@
         <v>RS</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>31</v>
@@ -976,8 +1013,14 @@
       <c r="H18" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>159</v>
       </c>
@@ -985,7 +1028,7 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
         <v>31</v>
@@ -996,16 +1039,29 @@
       <c r="F19" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="G19" s="1"/>
+      <c r="H19"/>
       <c r="I19" t="s">
         <v>4</v>
       </c>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>149</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>0</v>
@@ -1013,19 +1069,19 @@
       <c r="F20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I20" t="s">
-        <v>4</v>
+      <c r="L20" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>162</v>
+      </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
         <v>31</v>
@@ -1034,49 +1090,58 @@
         <v>2</v>
       </c>
       <c r="L21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>158</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>145</v>
+      </c>
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>161</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>46</v>
       </c>
       <c r="D24" t="s">
         <v>29</v>
@@ -1084,91 +1149,108 @@
       <c r="E24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N24" t="s">
-        <v>47</v>
+      <c r="H24" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>160</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D25" t="s">
         <v>29</v>
       </c>
+      <c r="E25" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="F25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="N25" t="s">
-        <v>38</v>
+      <c r="G25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I25" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>92</v>
-      </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="D26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="G26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L26" t="s">
-        <v>54</v>
+      <c r="N26" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>162</v>
-      </c>
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L27" t="s">
-        <v>47</v>
+      <c r="H27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>160</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>31</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H28" t="s">
-        <v>13</v>
+        <v>29</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>150</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M29" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:N29">
+    <sortCondition ref="C3:C29"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/code/reviewed/bugList.xlsx
+++ b/code/reviewed/bugList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\code\reviewed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52C25199-25BF-4295-8EB5-C3A4C202AA76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAF0492-097C-4518-952A-73980B5017B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="57">
   <si>
     <t>storm</t>
   </si>
@@ -267,7 +267,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,7 +551,7 @@
   <dimension ref="A2:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1149,6 +1149,9 @@
       <c r="E24" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="G24" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="H24" t="s">
         <v>13</v>
       </c>

--- a/code/reviewed/bugList.xlsx
+++ b/code/reviewed/bugList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\code\reviewed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAF0492-097C-4518-952A-73980B5017B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13F8E03-21BB-4295-860D-0DC266820CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="51">
   <si>
     <t>storm</t>
   </si>
@@ -116,9 +116,6 @@
     <t>order of operation</t>
   </si>
   <si>
-    <t>U</t>
-  </si>
-  <si>
     <t>crash or wrongly (un)sat</t>
   </si>
   <si>
@@ -167,12 +164,6 @@
     <t>malloc() failure</t>
   </si>
   <si>
-    <t>exception instead of status error ortools</t>
-  </si>
-  <si>
-    <t>unsat minizinc</t>
-  </si>
-  <si>
     <t>all minizincs</t>
   </si>
   <si>
@@ -182,18 +173,6 @@
     <t>minizinc: int, cp, lcg, chuffed</t>
   </si>
   <si>
-    <t>https://github.com/rubenkindt/cpmpy/blob/master/cpmpy/solvers/ortools.py</t>
-  </si>
-  <si>
-    <t>two separate references</t>
-  </si>
-  <si>
-    <t>minizinc error</t>
-  </si>
-  <si>
-    <t>minizinc: int, gist, gecode, cp</t>
-  </si>
-  <si>
     <t>loading file crashes</t>
   </si>
   <si>
@@ -206,14 +185,17 @@
     <t>randomVarWithSamename</t>
   </si>
   <si>
-    <t>unsat ortools</t>
+    <t>from_file</t>
+  </si>
+  <si>
+    <t>unsat Gurobi OR-Tools due to flattening</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,7 +212,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -262,12 +270,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:N29"/>
+  <dimension ref="A2:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,13 +583,13 @@
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>0</v>
@@ -621,7 +633,7 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>1</v>
@@ -633,34 +645,34 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>152</v>
       </c>
-      <c r="B4" s="2" t="str">
-        <f>_xlfn.CONCAT(B19,"U")</f>
-        <v>RSU</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="3" t="str">
+        <f>_xlfn.CONCAT("R","U")</f>
+        <v>RU</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="D4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -669,11 +681,11 @@
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>2</v>
@@ -692,17 +704,17 @@
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>30</v>
+      <c r="C6" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
         <v>3</v>
@@ -711,53 +723,56 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>48</v>
+    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>153</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7"/>
+      <c r="I7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8"/>
-      <c r="I8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
+        <v>28</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -770,7 +785,7 @@
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>0</v>
@@ -782,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -796,7 +811,7 @@
         <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>0</v>
@@ -811,38 +826,38 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>155</v>
       </c>
-      <c r="B11" s="2" t="str">
+      <c r="B11" s="3" t="str">
         <f>B3</f>
         <v>R</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="D11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="2" t="s">
+      <c r="F11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -852,10 +867,10 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>2</v>
@@ -872,10 +887,10 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -887,7 +902,7 @@
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M13"/>
       <c r="N13"/>
@@ -900,10 +915,10 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>1</v>
@@ -912,18 +927,21 @@
         <v>2</v>
       </c>
       <c r="L14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>92</v>
+        <v>156</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>0</v>
@@ -934,104 +952,108 @@
       <c r="G15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L15" t="s">
-        <v>51</v>
+      <c r="N15" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>22</v>
+        <v>11</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="G16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N16" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="H16" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <f>A16</f>
         <v>143</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="str">
+        <f>B16</f>
+        <v>RS</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>159</v>
+      </c>
+      <c r="B18" t="s">
         <v>11</v>
       </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H17" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="F18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18"/>
+      <c r="I18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <f>A17</f>
-        <v>143</v>
-      </c>
-      <c r="B18" s="2" t="str">
-        <f>B17</f>
-        <v>RS</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" t="s">
-        <v>46</v>
+        <v>8</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>0</v>
@@ -1039,75 +1061,65 @@
       <c r="F19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19"/>
-      <c r="I19" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19"/>
+      <c r="L19" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
-      <c r="C20" t="s">
-        <v>15</v>
+      <c r="C20" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>1</v>
+        <v>30</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="L20" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
-      <c r="C21" t="s">
-        <v>55</v>
+      <c r="C21" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L21" t="s">
-        <v>45</v>
+      <c r="H21" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>29</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="H22" t="s">
         <v>13</v>
@@ -1115,73 +1127,82 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="B23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C23" t="s">
-        <v>12</v>
+        <v>35</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H23" t="s">
-        <v>13</v>
+      <c r="G23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I23" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H24" t="s">
-        <v>13</v>
+        <v>28</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>39</v>
+      <c r="A25">
+        <v>150</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I25" t="s">
-        <v>4</v>
+      <c r="M25" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>170</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
       <c r="C26" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>0</v>
@@ -1189,70 +1210,16 @@
       <c r="G26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H27" s="4" t="s">
+      <c r="H26" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="N27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>160</v>
-      </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" t="s">
-        <v>29</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>150</v>
-      </c>
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M29" t="s">
-        <v>32</v>
+      <c r="I26" s="8" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:N29">
-    <sortCondition ref="C3:C29"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:N25">
+    <sortCondition ref="C3:C25"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/code/reviewed/bugList.xlsx
+++ b/code/reviewed/bugList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\code\reviewed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13F8E03-21BB-4295-860D-0DC266820CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E8AFA0-EADD-4F6B-B951-202B2132D64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -143,9 +143,6 @@
     <t>minizinc:experimental, minizinc:osicbc</t>
   </si>
   <si>
-    <t>Reported, Solved, User caused bug, timeout</t>
-  </si>
-  <si>
     <t>unsat_mip</t>
   </si>
   <si>
@@ -189,6 +186,9 @@
   </si>
   <si>
     <t>unsat Gurobi OR-Tools due to flattening</t>
+  </si>
+  <si>
+    <t>Reported, Solved, User caused bug, ReTested</t>
   </si>
 </sst>
 </file>
@@ -270,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -279,7 +279,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,7 +562,7 @@
   <dimension ref="A2:N26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,7 +582,7 @@
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -714,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
         <v>3</v>
@@ -759,7 +758,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
         <v>28</v>
@@ -867,7 +866,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
         <v>30</v>
@@ -887,7 +886,7 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
         <v>30</v>
@@ -902,7 +901,7 @@
       <c r="J13"/>
       <c r="K13"/>
       <c r="L13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M13"/>
       <c r="N13"/>
@@ -915,7 +914,7 @@
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
         <v>30</v>
@@ -927,7 +926,7 @@
         <v>2</v>
       </c>
       <c r="L14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -964,7 +963,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
         <v>30</v>
@@ -992,7 +991,7 @@
         <v>RS</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>30</v>
@@ -1020,7 +1019,7 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
         <v>30</v>
@@ -1073,7 +1072,7 @@
         <v>8</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
         <v>30</v>
@@ -1082,7 +1081,7 @@
         <v>2</v>
       </c>
       <c r="L20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -1130,10 +1129,10 @@
         <v>168</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
         <v>28</v>
@@ -1159,7 +1158,7 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D24" t="s">
         <v>28</v>
@@ -1168,7 +1167,7 @@
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -1196,10 +1195,10 @@
         <v>170</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D26" t="s">
         <v>28</v>
@@ -1210,10 +1209,10 @@
       <c r="G26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H26" t="s">
         <v>3</v>
       </c>
-      <c r="I26" s="8" t="s">
+      <c r="I26" t="s">
         <v>4</v>
       </c>
     </row>

--- a/code/reviewed/bugList.xlsx
+++ b/code/reviewed/bugList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\code\reviewed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E8AFA0-EADD-4F6B-B951-202B2132D64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B032A04A-9207-4F1D-84B6-8A5EF720CE95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="53">
   <si>
     <t>storm</t>
   </si>
@@ -188,14 +188,20 @@
     <t>unsat Gurobi OR-Tools due to flattening</t>
   </si>
   <si>
-    <t>Reported, Solved, User caused bug, ReTested</t>
+    <t>Reported, Solved, User caused bug, ReTested, Known error</t>
+  </si>
+  <si>
+    <t>RK</t>
+  </si>
+  <si>
+    <t>Model, Transformation, Solver</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,15 +240,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -270,15 +267,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,666 +576,729 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:N26"/>
+  <dimension ref="A2:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="H2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B3">
         <v>152</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="H3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="T3" s="4"/>
+    </row>
+    <row r="4" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
         <v>152</v>
       </c>
-      <c r="B4" s="3" t="str">
+      <c r="C4" s="2" t="str">
         <f>_xlfn.CONCAT("R","U")</f>
         <v>RU</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B5">
         <v>157</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="D5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="E5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="T5" s="4"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B6">
         <v>142</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="D6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="T6" s="4"/>
+    </row>
+    <row r="7" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7">
         <v>153</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7"/>
-      <c r="I7" t="s">
+      <c r="H7" s="5"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B8">
         <v>161</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="H8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="T8" s="4"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B9">
         <v>154</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N9" t="s">
+      <c r="H9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O9" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="T9" s="4"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
         <v>155</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="H10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="T10" s="4"/>
+    </row>
+    <row r="11" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
         <v>155</v>
       </c>
-      <c r="B11" s="3" t="str">
-        <f>B3</f>
+      <c r="C11" s="2" t="str">
+        <f>C3</f>
         <v>R</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="7"/>
+      <c r="I11" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B12">
         <v>163</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="E12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="T12" s="4"/>
+    </row>
+    <row r="13" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13">
         <v>164</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>165</v>
+      </c>
+      <c r="C14" t="s">
         <v>8</v>
       </c>
-      <c r="C13" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13"/>
-      <c r="K13"/>
-      <c r="L13" t="s">
+      <c r="D14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="M13"/>
-      <c r="N13"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>165</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="T14" s="4"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>156</v>
+      </c>
+      <c r="C15" t="s">
         <v>8</v>
       </c>
-      <c r="C14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" t="s">
-        <v>30</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="D15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>156</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="H15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="T15" s="4"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>143</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="T16" s="4"/>
+    </row>
+    <row r="17" spans="2:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <f>B16</f>
+        <v>143</v>
+      </c>
+      <c r="C17" s="2" t="str">
+        <f>C16</f>
+        <v>RS</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+    </row>
+    <row r="18" spans="2:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="3">
+        <v>159</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>149</v>
+      </c>
+      <c r="C19" t="s">
         <v>8</v>
       </c>
-      <c r="C15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="1" t="s">
+      <c r="D19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G19" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>143</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="M19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T19" s="4"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>162</v>
+      </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="T20" s="4"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>158</v>
+      </c>
+      <c r="C21" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="1" t="s">
+      <c r="D21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T21" s="4"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>145</v>
+      </c>
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T22" s="4"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>168</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="G23" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="T23" s="4"/>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>160</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T24" s="4"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>150</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T25" s="4"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>170</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J26" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <f>A16</f>
-        <v>143</v>
-      </c>
-      <c r="B17" s="3" t="str">
-        <f>B16</f>
-        <v>RS</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>159</v>
-      </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18"/>
-      <c r="I18" t="s">
-        <v>4</v>
-      </c>
-      <c r="J18"/>
-      <c r="K18"/>
-      <c r="L18"/>
-      <c r="M18"/>
-      <c r="N18"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>149</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>162</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>158</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>145</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>168</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>160</v>
-      </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>150</v>
-      </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" t="s">
-        <v>30</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>170</v>
-      </c>
-      <c r="B26" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H26" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" t="s">
-        <v>4</v>
-      </c>
+      <c r="T26" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:N25">
-    <sortCondition ref="C3:C25"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <protectedRanges>
+    <protectedRange sqref="C1:C1048576" name="Range1"/>
+  </protectedRanges>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:O25">
+    <sortCondition ref="D3:D25"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/code/reviewed/bugList.xlsx
+++ b/code/reviewed/bugList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\code\reviewed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBBDEA6B-CC9C-4BFA-8312-359CA9AEABED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4C0C12-74F3-44B9-85E4-B7265AE61EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -317,12 +317,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -605,15 +607,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:U26"/>
+  <dimension ref="B2:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.140625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="5" customWidth="1"/>
     <col min="5" max="5" width="27.28515625" style="4" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" style="4" customWidth="1"/>
@@ -628,9 +628,6 @@
     <col min="15" max="20" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B1"/>
-    </row>
     <row r="2" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>51</v>
@@ -709,7 +706,7 @@
       <c r="U3" s="4"/>
     </row>
     <row r="4" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="B4" t="s">
         <v>54</v>
       </c>
       <c r="C4">
@@ -749,7 +746,7 @@
       <c r="U4" s="6"/>
     </row>
     <row r="5" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
+      <c r="B5" t="s">
         <v>54</v>
       </c>
       <c r="C5" s="2">
@@ -784,7 +781,7 @@
       <c r="U5" s="4"/>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+      <c r="B6" t="s">
         <v>53</v>
       </c>
       <c r="C6">
@@ -808,7 +805,7 @@
       <c r="U6" s="4"/>
     </row>
     <row r="7" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
+      <c r="B7" t="s">
         <v>55</v>
       </c>
       <c r="C7">
@@ -831,12 +828,12 @@
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
+      <c r="K7" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
-      <c r="N7" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="N7" s="4"/>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -846,7 +843,7 @@
       <c r="U7" s="10"/>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
+      <c r="B8" t="s">
         <v>55</v>
       </c>
       <c r="C8">
@@ -896,7 +893,7 @@
       </c>
       <c r="U9" s="4"/>
     </row>
-    <row r="10" spans="2:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>53</v>
       </c>
@@ -928,13 +925,13 @@
       <c r="O10" s="6"/>
       <c r="P10" s="6"/>
       <c r="Q10" s="6"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
     </row>
     <row r="11" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
+      <c r="B11" t="s">
         <v>55</v>
       </c>
       <c r="C11">
@@ -970,7 +967,7 @@
       <c r="U11" s="6"/>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
+      <c r="B12" t="s">
         <v>55</v>
       </c>
       <c r="C12">
@@ -1000,40 +997,40 @@
       <c r="U12" s="4"/>
     </row>
     <row r="13" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>155</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F13" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="14" t="s">
+      <c r="F13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I13" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13" t="s">
+      <c r="I13" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
@@ -1081,7 +1078,7 @@
       <c r="U14" s="6"/>
     </row>
     <row r="15" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
+      <c r="B15" t="s">
         <v>55</v>
       </c>
       <c r="C15">
@@ -1120,7 +1117,7 @@
       <c r="D16" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="14" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="4" t="s">
@@ -1135,7 +1132,7 @@
       <c r="U16" s="4"/>
     </row>
     <row r="17" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
+      <c r="B17" t="s">
         <v>53</v>
       </c>
       <c r="C17">
@@ -1159,45 +1156,45 @@
       <c r="U17" s="4"/>
     </row>
     <row r="18" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="11">
         <v>159</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="14" t="s">
+      <c r="F18" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="H18" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="I18" s="14"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13" t="s">
+      <c r="I18" s="13"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
       <c r="R18" s="8"/>
       <c r="S18" s="8"/>
       <c r="T18" s="8"/>
       <c r="U18" s="8"/>
     </row>
     <row r="19" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
+      <c r="B19" t="s">
         <v>53</v>
       </c>
       <c r="C19">
@@ -1224,7 +1221,7 @@
       <c r="U19" s="4"/>
     </row>
     <row r="20" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B20" s="11" t="s">
+      <c r="B20" t="s">
         <v>55</v>
       </c>
       <c r="C20">
@@ -1248,7 +1245,7 @@
       <c r="U20" s="4"/>
     </row>
     <row r="21" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B21" s="11" t="s">
+      <c r="B21" t="s">
         <v>53</v>
       </c>
       <c r="C21">
@@ -1272,7 +1269,7 @@
       <c r="U21" s="4"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
+      <c r="B22" t="s">
         <v>54</v>
       </c>
       <c r="C22">
@@ -1296,7 +1293,7 @@
       <c r="Q22" s="10"/>
       <c r="U22" s="4"/>
     </row>
-    <row r="23" spans="2:21" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:21" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>54</v>
       </c>
@@ -1327,13 +1324,13 @@
         <v>36</v>
       </c>
       <c r="Q23" s="6"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
     </row>
     <row r="24" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B24" s="11" t="s">
+      <c r="B24" t="s">
         <v>54</v>
       </c>
       <c r="C24">
@@ -1360,7 +1357,7 @@
       <c r="U24" s="4"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B25" s="11" t="s">
+      <c r="B25" t="s">
         <v>54</v>
       </c>
       <c r="C25">
@@ -1369,7 +1366,7 @@
       <c r="D25" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="14" t="s">
         <v>37</v>
       </c>
       <c r="F25" s="4" t="s">
@@ -1390,7 +1387,7 @@
       <c r="U25" s="4"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B26" s="11" t="s">
+      <c r="B26" t="s">
         <v>54</v>
       </c>
       <c r="C26">

--- a/code/reviewed/bugList.xlsx
+++ b/code/reviewed/bugList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\code\reviewed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B4C0C12-74F3-44B9-85E4-B7265AE61EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5A6D93-9E22-4EC9-8D87-74627A4D7679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="240" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -291,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -322,9 +322,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -609,7 +606,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:L21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1117,7 +1116,7 @@
       <c r="D16" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="4" t="s">
@@ -1252,7 +1251,7 @@
         <v>163</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>44</v>
@@ -1366,7 +1365,7 @@
       <c r="D25" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="4" t="s">
         <v>37</v>
       </c>
       <c r="F25" s="4" t="s">

--- a/code/reviewed/bugList.xlsx
+++ b/code/reviewed/bugList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\code\reviewed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5A6D93-9E22-4EC9-8D87-74627A4D7679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3094AE79-6B20-4321-B295-B97447BDFB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -607,7 +607,7 @@
   <dimension ref="B2:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:L21"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,7 +1084,7 @@
         <v>156</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>22</v>
@@ -1227,7 +1227,7 @@
         <v>162</v>
       </c>
       <c r="D20" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E20" s="9" t="s">
         <v>52</v>

--- a/code/reviewed/bugList.xlsx
+++ b/code/reviewed/bugList.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruben\Desktop\Thesis\Masterproef-paper\code\reviewed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3094AE79-6B20-4321-B295-B97447BDFB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B65856-D67D-4B34-8F35-AB3BEC11869A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="270" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId3"/>
+    <sheet name="junk" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="8" r:id="rId5"/>
+    <pivotCache cacheId="36" r:id="rId6"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="64">
   <si>
     <t>storm</t>
   </si>
@@ -213,6 +220,21 @@
   </si>
   <si>
     <t>bug nr</t>
+  </si>
+  <si>
+    <t>Count of crash or wrongly (un)sat</t>
+  </si>
+  <si>
+    <t>wrongly (un)satisfiable</t>
+  </si>
+  <si>
+    <t>Wrong nr of sol</t>
+  </si>
+  <si>
+    <t>Count of Model, Transformation, Solver</t>
+  </si>
+  <si>
+    <t>Solver Interface</t>
   </si>
 </sst>
 </file>
@@ -265,7 +287,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -278,8 +300,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -287,11 +315,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -324,6 +361,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -339,6 +379,2869 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Type of bug</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$13:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>crash</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>wrongly (un)satisfiable</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Wrong nr of sol</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$13:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C40B-41E0-9F34-AA750850D967}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="678983808"/>
+        <c:axId val="678990880"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="678983808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="678990880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="678990880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="678983808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Location of the</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> bugs</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$A$11:$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Model</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Transformation</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Solver Interface</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Solver</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$B$11:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B5F2-42F6-8FED-EE321E87BFEE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="678991296"/>
+        <c:axId val="678971328"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="678991296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="678971328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="678971328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="678991296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEC45BD6-6228-E81E-0CC4-F11A2EDDB0EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B298C88-0EDA-2879-8B3A-0CA201B28205}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ruben kindt" refreshedDate="44910.593059837964" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="19" xr:uid="{1D6C29E8-AEED-403C-B368-107ACA086FE7}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B2:P21" sheet="junk"/>
+  </cacheSource>
+  <cacheFields count="15">
+    <cacheField name="Model, Transformation, Solver" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="bug nr" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="142" maxValue="170"/>
+    </cacheField>
+    <cacheField name="Reported, Solved, User caused bug, ReTested, Known error" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="bug desciption" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="crash or wrongly (un)sat" numFmtId="0">
+      <sharedItems count="3">
+        <s v="UNSATISFIABLE"/>
+        <s v="crash"/>
+        <s v="NOT RUN"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="storm" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="diff" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="meta" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="ortools" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="gurobi" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="minizinc:chuffed" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="minizinc:ortools" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="minizinc:gurobi" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="pysats" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="other minizincs" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="ruben kindt" refreshedDate="44910.598192476849" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="19" xr:uid="{D0282184-EFB8-46C1-91C7-129694A0504F}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B2:P21" sheet="junk"/>
+  </cacheSource>
+  <cacheFields count="15">
+    <cacheField name="Model, Transformation, Solver" numFmtId="0">
+      <sharedItems count="4">
+        <s v="Transformation"/>
+        <s v="Model"/>
+        <s v="Solver Interface"/>
+        <s v="Solver"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="bug nr" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="142" maxValue="170"/>
+    </cacheField>
+    <cacheField name="Reported, Solved, User caused bug, ReTested, Known error" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="bug desciption" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="crash or wrongly (un)sat" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="storm" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="diff" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="meta" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="ortools" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="gurobi" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="minizinc:chuffed" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="minizinc:ortools" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="minizinc:gurobi" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="pysats" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="other minizincs" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="19">
+  <r>
+    <s v="Transformation"/>
+    <n v="142"/>
+    <s v="RS"/>
+    <s v="double not"/>
+    <x v="0"/>
+    <s v="storm"/>
+    <m/>
+    <s v="!"/>
+    <s v="ortools"/>
+    <s v="gurobi"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="Transformation"/>
+    <n v="143"/>
+    <s v="RS"/>
+    <s v="negationGlobalFunction"/>
+    <x v="1"/>
+    <s v="storm"/>
+    <m/>
+    <s v="meta"/>
+    <s v="ortools"/>
+    <s v="gurobi"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="Model"/>
+    <n v="145"/>
+    <s v="RS"/>
+    <s v="solverlookup"/>
+    <x v="1"/>
+    <m/>
+    <s v="diff"/>
+    <m/>
+    <s v="nosolver"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="Solver"/>
+    <n v="149"/>
+    <s v="R"/>
+    <s v="pow lower bound of variable in pow()"/>
+    <x v="1"/>
+    <s v="storm"/>
+    <s v="diff"/>
+    <m/>
+    <m/>
+    <s v="gurobi"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="Solver"/>
+    <n v="150"/>
+    <s v="RS"/>
+    <s v="wrong bound valueError"/>
+    <x v="1"/>
+    <m/>
+    <s v="diff"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="all pysat"/>
+    <m/>
+  </r>
+  <r>
+    <s v="Model"/>
+    <n v="152"/>
+    <s v="RK"/>
+    <s v="bool has no implies"/>
+    <x v="1"/>
+    <m/>
+    <s v="diff"/>
+    <s v="meta"/>
+    <s v="nosolver"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="Solver"/>
+    <n v="153"/>
+    <s v="R"/>
+    <s v="gurobi not run wrong nr sol"/>
+    <x v="2"/>
+    <m/>
+    <s v="diff"/>
+    <m/>
+    <m/>
+    <s v="gurobi"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="Solver"/>
+    <n v="154"/>
+    <s v="RS"/>
+    <s v="JSON Decode error"/>
+    <x v="1"/>
+    <s v="storm"/>
+    <s v="diff"/>
+    <s v="meta"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="minizinc:experimental, minizinc:osicbc"/>
+  </r>
+  <r>
+    <s v="Solver"/>
+    <n v="155"/>
+    <s v="R"/>
+    <s v="list has no shape"/>
+    <x v="1"/>
+    <s v="storm"/>
+    <s v="diff"/>
+    <s v="meta"/>
+    <m/>
+    <s v="gurobi"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="Solver"/>
+    <n v="156"/>
+    <s v="RS"/>
+    <s v="Minizinc zero but no error"/>
+    <x v="1"/>
+    <s v="storm"/>
+    <s v="diff"/>
+    <s v="meta"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="minizinc:gecode, minizinc:gist, minizinc:restart, minizinc:xpress, minizinc:set"/>
+  </r>
+  <r>
+    <s v="Transformation"/>
+    <n v="157"/>
+    <s v="R"/>
+    <s v="circuit of 1 int"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <s v="meta"/>
+    <s v="nosolver"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="Model"/>
+    <n v="158"/>
+    <s v="RS"/>
+    <s v="same varname"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <s v="meta"/>
+    <s v="nosolver"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="Solver"/>
+    <n v="159"/>
+    <s v="RSK"/>
+    <s v="new gurobi status 9"/>
+    <x v="1"/>
+    <s v="storm"/>
+    <s v="diff"/>
+    <m/>
+    <m/>
+    <s v="gurobi"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="Model"/>
+    <n v="161"/>
+    <s v="R"/>
+    <s v="from_file"/>
+    <x v="0"/>
+    <s v="storm"/>
+    <m/>
+    <s v="meta"/>
+    <s v="nosolver"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="Solver"/>
+    <n v="162"/>
+    <s v="RS"/>
+    <s v="randomVarWithname+"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <s v="meta"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="all minizincs"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="Transformation"/>
+    <n v="164"/>
+    <s v="RSK"/>
+    <s v="malloc() failure"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <s v="meta"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="minizinc: int, cp, lcg, chuffed"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="Transformation"/>
+    <n v="165"/>
+    <s v="R"/>
+    <s v="memory violation seg fault minizinc (is the same bug as out of range)"/>
+    <x v="1"/>
+    <m/>
+    <s v="diff"/>
+    <s v="meta"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="minizinc: int, cp, lcg, chuffed"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="Transformation"/>
+    <n v="168"/>
+    <s v="RS"/>
+    <s v="unsat gurobi"/>
+    <x v="0"/>
+    <s v="storm"/>
+    <s v="diff"/>
+    <s v="meta"/>
+    <m/>
+    <s v="gurobi"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="Transformation"/>
+    <n v="170"/>
+    <s v="RS"/>
+    <s v="unsat Gurobi OR-Tools due to flattening"/>
+    <x v="0"/>
+    <s v="storm"/>
+    <m/>
+    <s v="meta"/>
+    <s v="ortools"/>
+    <s v="gurobi"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="19">
+  <r>
+    <x v="0"/>
+    <n v="142"/>
+    <s v="RS"/>
+    <s v="double not"/>
+    <s v="UNSATISFIABLE"/>
+    <s v="storm"/>
+    <m/>
+    <s v="!"/>
+    <s v="ortools"/>
+    <s v="gurobi"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="143"/>
+    <s v="RS"/>
+    <s v="negationGlobalFunction"/>
+    <s v="crash"/>
+    <s v="storm"/>
+    <m/>
+    <s v="meta"/>
+    <s v="ortools"/>
+    <s v="gurobi"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="145"/>
+    <s v="RS"/>
+    <s v="solverlookup"/>
+    <s v="crash"/>
+    <m/>
+    <s v="diff"/>
+    <m/>
+    <s v="nosolver"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="149"/>
+    <s v="R"/>
+    <s v="pow lower bound of variable in pow()"/>
+    <s v="crash"/>
+    <s v="storm"/>
+    <s v="diff"/>
+    <m/>
+    <m/>
+    <s v="gurobi"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="150"/>
+    <s v="RS"/>
+    <s v="wrong bound valueError"/>
+    <s v="crash"/>
+    <m/>
+    <s v="diff"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="all pysat"/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="152"/>
+    <s v="RK"/>
+    <s v="bool has no implies"/>
+    <s v="crash"/>
+    <m/>
+    <s v="diff"/>
+    <s v="meta"/>
+    <s v="nosolver"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="153"/>
+    <s v="R"/>
+    <s v="gurobi not run wrong nr sol"/>
+    <s v="NOT RUN"/>
+    <m/>
+    <s v="diff"/>
+    <m/>
+    <m/>
+    <s v="gurobi"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="154"/>
+    <s v="RS"/>
+    <s v="JSON Decode error"/>
+    <s v="crash"/>
+    <s v="storm"/>
+    <s v="diff"/>
+    <s v="meta"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="minizinc:experimental, minizinc:osicbc"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="155"/>
+    <s v="R"/>
+    <s v="list has no shape"/>
+    <s v="crash"/>
+    <s v="storm"/>
+    <s v="diff"/>
+    <s v="meta"/>
+    <m/>
+    <s v="gurobi"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="156"/>
+    <s v="RS"/>
+    <s v="Minizinc zero but no error"/>
+    <s v="crash"/>
+    <s v="storm"/>
+    <s v="diff"/>
+    <s v="meta"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="minizinc:gecode, minizinc:gist, minizinc:restart, minizinc:xpress, minizinc:set"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="157"/>
+    <s v="R"/>
+    <s v="circuit of 1 int"/>
+    <s v="crash"/>
+    <m/>
+    <m/>
+    <s v="meta"/>
+    <s v="nosolver"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="158"/>
+    <s v="RS"/>
+    <s v="same varname"/>
+    <s v="UNSATISFIABLE"/>
+    <m/>
+    <m/>
+    <s v="meta"/>
+    <s v="nosolver"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="159"/>
+    <s v="RSK"/>
+    <s v="new gurobi status 9"/>
+    <s v="crash"/>
+    <s v="storm"/>
+    <s v="diff"/>
+    <m/>
+    <m/>
+    <s v="gurobi"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="161"/>
+    <s v="R"/>
+    <s v="from_file"/>
+    <s v="UNSATISFIABLE"/>
+    <s v="storm"/>
+    <m/>
+    <s v="meta"/>
+    <s v="nosolver"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="162"/>
+    <s v="RS"/>
+    <s v="randomVarWithname+"/>
+    <s v="crash"/>
+    <m/>
+    <m/>
+    <s v="meta"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="all minizincs"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="164"/>
+    <s v="RSK"/>
+    <s v="malloc() failure"/>
+    <s v="crash"/>
+    <m/>
+    <m/>
+    <s v="meta"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="minizinc: int, cp, lcg, chuffed"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="165"/>
+    <s v="R"/>
+    <s v="memory violation seg fault minizinc (is the same bug as out of range)"/>
+    <s v="crash"/>
+    <m/>
+    <s v="diff"/>
+    <s v="meta"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <s v="minizinc: int, cp, lcg, chuffed"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="168"/>
+    <s v="RS"/>
+    <s v="unsat gurobi"/>
+    <s v="UNSATISFIABLE"/>
+    <s v="storm"/>
+    <s v="diff"/>
+    <s v="meta"/>
+    <m/>
+    <s v="gurobi"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="0"/>
+    <n v="170"/>
+    <s v="RS"/>
+    <s v="unsat Gurobi OR-Tools due to flattening"/>
+    <s v="UNSATISFIABLE"/>
+    <s v="storm"/>
+    <m/>
+    <s v="meta"/>
+    <s v="ortools"/>
+    <s v="gurobi"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0609435A-44C1-4E3C-930F-28DDD105B810}" name="PivotTable5" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="15">
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of crash or wrongly (un)sat" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E19EED97-628A-47B5-AAD0-1A840EE81BE5}" name="PivotTable21" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="15">
+    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Model, Transformation, Solver" fld="0" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -606,8 +3509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:U26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1243,29 +4146,41 @@
       </c>
       <c r="U20" s="4"/>
     </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>163</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="J21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="U21" s="4"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
     </row>
     <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
@@ -1425,4 +4340,825 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24A155F2-8DAD-4D26-940F-86C0FF5616BE}">
+  <dimension ref="A3:B15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="15">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF0F531E-BFD2-4F03-BEB2-266C5C7CEAF1}">
+  <dimension ref="A3:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="15">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF07A57F-71DD-4ECB-A2B9-28B455AC0518}">
+  <dimension ref="B2:U21"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="5" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="20" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3">
+        <v>142</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="U3" s="4"/>
+    </row>
+    <row r="4" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4">
+        <v>143</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5">
+        <v>145</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="U5" s="4"/>
+    </row>
+    <row r="6" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6">
+        <v>149</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7">
+        <v>150</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="U7" s="4"/>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8">
+        <v>152</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="U8" s="4"/>
+    </row>
+    <row r="9" spans="2:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9">
+        <v>153</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10">
+        <v>154</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="U10" s="4"/>
+    </row>
+    <row r="11" spans="2:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="11">
+        <v>155</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12">
+        <v>156</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="U12" s="4"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13">
+        <v>157</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="U13" s="4"/>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14">
+        <v>158</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="U14" s="4"/>
+    </row>
+    <row r="15" spans="2:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="11">
+        <v>159</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="13"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16">
+        <v>161</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="U16" s="4"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17">
+        <v>162</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="U17" s="4"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18">
+        <v>164</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q18" s="10"/>
+      <c r="U18" s="4"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19">
+        <v>165</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="U19" s="4"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20">
+        <v>168</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="U20" s="4"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21">
+        <v>170</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="4"/>
+    </row>
+  </sheetData>
+  <protectedRanges>
+    <protectedRange sqref="D1:D1048576" name="Range1"/>
+  </protectedRanges>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>